--- a/Lab4/Results.xlsx
+++ b/Lab4/Results.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Inc values" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Same values" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Random values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Decreasing values" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Same values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Random values" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Decreasing values" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -494,6 +495,14 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664969015"/>
         <c:axId val="664969016"/>
       </c:scatterChart>
@@ -677,7 +686,7 @@
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="3657599" y="1266824"/>
+      <a:off x="2314574" y="476249"/>
       <a:ext cx="4552948" cy="2724148"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -721,6 +730,2632 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Decreasing values</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Decreasing values'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SmoothSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f xml:space="preserve">'Decreasing values'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Decreasing values'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.018478</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.028685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.038768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.048687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.058997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.069465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.089927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.100633</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.111391</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.122035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14208</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.153882</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.165412</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17641</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.185104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.200027</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Decreasing values'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f xml:space="preserve">'Decreasing values'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Decreasing values'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.014455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.022407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.030579</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.038956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.055837</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.064579</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.073514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.081666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09137</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.099252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.108405</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.117047</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.126072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.135748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.144464</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.155054</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.162709</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="664969039"/>
+        <c:axId val="664969040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664969039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664969040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="257174" y="304799"/>
+      <a:ext cx="4552948" cy="2724148"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Increasing values</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Inc values'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SmoothSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Inc values'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Inc values'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.001576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.004778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.005574</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.006416</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.007225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.007951</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.008755</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.009581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.010346</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.011182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.012027</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.01267</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.014327</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.015143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Inc values'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Inc values'!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Inc values'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.01494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02309</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.031413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.039943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.049965</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.056966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06631</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.074987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.083781</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.092959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.101764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.120165</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.138646</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.147422</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.156609</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.166287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="664969044"/>
+        <c:axId val="664969045"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664969044"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969045"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664969045"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969044"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="5076824" y="361949"/>
+      <a:ext cx="4552947" cy="2724147"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Same values</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Same values'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SmoothSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f xml:space="preserve">'Same values'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Same values'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.001591</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.002397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.003185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.003978</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.005776</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.005656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.006743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.007165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.007965</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.008901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.009569</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.010467</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.011155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.012049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.012739</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.01356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.014374</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.015333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Same values'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f xml:space="preserve">'Same values'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Same values'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.000882</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.001315</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.001761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.002249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.003396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.003126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.003511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.003935</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.004437</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00484</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.005255</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.005692</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.006152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.006567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.007016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.007461</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.008025</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.008323</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="664969049"/>
+        <c:axId val="664969050"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664969049"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969050"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664969050"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969049"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="257174" y="3200399"/>
+      <a:ext cx="4552948" cy="2724148"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>Random values</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Random values'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SmoothSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f xml:space="preserve">'Random values'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Random values'!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.027639</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.043219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.059573</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.076072</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09297</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.109934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.127389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14447</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.162592</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.179666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.197153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.215899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.235577</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.252476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.270976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.291534</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.30848</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.328033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f xml:space="preserve">'Random values'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HeapSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f xml:space="preserve">'Random values'!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>650000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>700000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>750000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>800000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>850000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>900000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f xml:space="preserve">'Random values'!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.018145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02835</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.039778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.050102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.061436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.073065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.084979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.096891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.108871</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.121419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.135462</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.146193</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.158985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.171017</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.184079</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.197619</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.209092</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.222922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLeaderLines val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
+        <c:axId val="664969054"/>
+        <c:axId val="664969055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664969054"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664969055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664969054"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="5076824" y="3248024"/>
+      <a:ext cx="4552948" cy="2724148"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -861,6 +3496,7 @@
               <c:f xml:space="preserve">'Same values'!$B$2:$B$19</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -908,7 +3544,16 @@
               <c:f xml:space="preserve">'Same values'!$C$2:$C$19</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664969013"/>
         <c:axId val="664969014"/>
       </c:scatterChart>
@@ -975,6 +3620,7 @@
         </c:txPr>
         <c:crossAx val="664969014"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664969014"/>
@@ -1086,10 +3732,11 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="2762249" y="1019174"/>
+      <a:off x="2266949" y="590549"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1132,7 +3779,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1257,6 +3904,7 @@
               <c:f xml:space="preserve">'Random values'!$B$2:$B$19</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1304,7 +3952,16 @@
               <c:f xml:space="preserve">'Random values'!$C$2:$C$19</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664969022"/>
         <c:axId val="664969023"/>
       </c:scatterChart>
@@ -1371,6 +4028,7 @@
         </c:txPr>
         <c:crossAx val="664969023"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664969023"/>
@@ -1482,10 +4140,11 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="3867149" y="781049"/>
+      <a:off x="2324098" y="628649"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -1528,7 +4187,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1653,6 +4312,7 @@
               <c:f xml:space="preserve">'Decreasing values'!$B$2:$B$19</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1700,7 +4360,16 @@
               <c:f xml:space="preserve">'Decreasing values'!$C$2:$C$19</c:f>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:axId val="664969029"/>
         <c:axId val="664969030"/>
       </c:scatterChart>
@@ -1767,6 +4436,7 @@
         </c:txPr>
         <c:crossAx val="664969030"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="664969030"/>
@@ -1878,10 +4548,11 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr bwMode="auto">
     <a:xfrm>
-      <a:off x="8172450" y="4038599"/>
+      <a:off x="2362199" y="657224"/>
       <a:ext cx="4552949" cy="2724149"/>
     </a:xfrm>
     <a:prstGeom prst="rect">
@@ -2084,6 +4755,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3720,6 +6551,2186 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4268,16 +9279,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285748</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9523</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161923</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4287,7 +9298,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3657599" y="1266824"/>
+        <a:off x="2314574" y="476249"/>
         <a:ext cx="4552948" cy="2724148"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4305,31 +9316,127 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542923</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="664969010" name="" hidden="0"/>
+        <xdr:cNvPr id="664969041" name="" hidden="0"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2762249" y="1019174"/>
-        <a:ext cx="4552949" cy="2724149"/>
+        <a:off x="257174" y="304799"/>
+        <a:ext cx="4552948" cy="2724148"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485772</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9522</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664969046" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5076824" y="361949"/>
+        <a:ext cx="4552947" cy="2724147"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542923</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664969051" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="257174" y="3200399"/>
+        <a:ext cx="4552948" cy="2724148"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485773</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>180973</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664969056" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5076824" y="3248024"/>
+        <a:ext cx="4552948" cy="2724148"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4342,26 +9449,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="664969019" name="" hidden="0"/>
+        <xdr:cNvPr id="664969010" name="" hidden="0"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3867149" y="781049"/>
+        <a:off x="2266949" y="590549"/>
         <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
@@ -4379,16 +9486,53 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="664969019" name="" hidden="0"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2324098" y="628649"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4398,7 +9542,7 @@
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8172450" y="4038599"/>
+        <a:off x="2362199" y="657224"/>
         <a:ext cx="4552949" cy="2724149"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5137,217 +10281,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>100000</v>
-      </c>
-      <c r="B2">
-        <v>0.001591</v>
-      </c>
-      <c r="C2">
-        <v>0.00088199999999999997</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>150000</v>
-      </c>
-      <c r="B3">
-        <v>0.0023969999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.001315</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>200000</v>
-      </c>
-      <c r="B4">
-        <v>0.0031849999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.001761</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>250000</v>
-      </c>
-      <c r="B5">
-        <v>0.0039779999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.0022490000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>300000</v>
-      </c>
-      <c r="B6">
-        <v>0.0057759999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.0033960000000000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>350000</v>
-      </c>
-      <c r="B7">
-        <v>0.0056559999999999996</v>
-      </c>
-      <c r="C7">
-        <v>0.0031259999999999999</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>400000</v>
-      </c>
-      <c r="B8">
-        <v>0.0067429999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.0035109999999999998</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>450000</v>
-      </c>
-      <c r="B9">
-        <v>0.0071650000000000004</v>
-      </c>
-      <c r="C9">
-        <v>0.0039350000000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>500000</v>
-      </c>
-      <c r="B10">
-        <v>0.0079649999999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.004437</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>550000</v>
-      </c>
-      <c r="B11">
-        <v>0.0089009999999999992</v>
-      </c>
-      <c r="C11">
-        <v>0.0048399999999999997</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>600000</v>
-      </c>
-      <c r="B12">
-        <v>0.0095689999999999994</v>
-      </c>
-      <c r="C12">
-        <v>0.0052550000000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>650000</v>
-      </c>
-      <c r="B13">
-        <v>0.010467000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.005692</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>700000</v>
-      </c>
-      <c r="B14">
-        <v>0.011155</v>
-      </c>
-      <c r="C14">
-        <v>0.0061520000000000004</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>750000</v>
-      </c>
-      <c r="B15">
-        <v>0.012049000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.0065669999999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>800000</v>
-      </c>
-      <c r="B16">
-        <v>0.012739</v>
-      </c>
-      <c r="C16">
-        <v>0.0070159999999999997</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <v>850000</v>
-      </c>
-      <c r="B17">
-        <v>0.013559999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.0074609999999999998</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>900000</v>
-      </c>
-      <c r="B18">
-        <v>0.014374</v>
-      </c>
-      <c r="C18">
-        <v>0.0080249999999999991</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <v>950000</v>
-      </c>
-      <c r="B19">
-        <v>0.015332999999999999</v>
-      </c>
-      <c r="C19">
-        <v>0.0083230000000000005</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
@@ -5363,7 +10297,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -5381,10 +10315,10 @@
         <v>100000</v>
       </c>
       <c r="B2">
-        <v>0.027639</v>
+        <v>0.001591</v>
       </c>
       <c r="C2">
-        <v>0.018145000000000001</v>
+        <v>0.00088199999999999997</v>
       </c>
     </row>
     <row r="3">
@@ -5392,10 +10326,10 @@
         <v>150000</v>
       </c>
       <c r="B3">
-        <v>0.043219</v>
+        <v>0.0023969999999999998</v>
       </c>
       <c r="C3">
-        <v>0.02835</v>
+        <v>0.001315</v>
       </c>
     </row>
     <row r="4">
@@ -5403,10 +10337,10 @@
         <v>200000</v>
       </c>
       <c r="B4">
-        <v>0.059573000000000001</v>
+        <v>0.0031849999999999999</v>
       </c>
       <c r="C4">
-        <v>0.039778000000000001</v>
+        <v>0.001761</v>
       </c>
     </row>
     <row r="5">
@@ -5414,10 +10348,10 @@
         <v>250000</v>
       </c>
       <c r="B5">
-        <v>0.076072000000000001</v>
+        <v>0.0039779999999999998</v>
       </c>
       <c r="C5">
-        <v>0.050102000000000001</v>
+        <v>0.0022490000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5425,10 +10359,10 @@
         <v>300000</v>
       </c>
       <c r="B6">
-        <v>0.092969999999999997</v>
+        <v>0.0057759999999999999</v>
       </c>
       <c r="C6">
-        <v>0.061435999999999998</v>
+        <v>0.0033960000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5436,10 +10370,10 @@
         <v>350000</v>
       </c>
       <c r="B7">
-        <v>0.109934</v>
+        <v>0.0056559999999999996</v>
       </c>
       <c r="C7">
-        <v>0.073065000000000005</v>
+        <v>0.0031259999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5447,10 +10381,10 @@
         <v>400000</v>
       </c>
       <c r="B8">
-        <v>0.127389</v>
+        <v>0.0067429999999999999</v>
       </c>
       <c r="C8">
-        <v>0.084978999999999999</v>
+        <v>0.0035109999999999998</v>
       </c>
     </row>
     <row r="9">
@@ -5458,10 +10392,10 @@
         <v>450000</v>
       </c>
       <c r="B9">
-        <v>0.14446999999999999</v>
+        <v>0.0071650000000000004</v>
       </c>
       <c r="C9">
-        <v>0.096891000000000005</v>
+        <v>0.0039350000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5469,10 +10403,10 @@
         <v>500000</v>
       </c>
       <c r="B10">
-        <v>0.16259199999999999</v>
+        <v>0.0079649999999999999</v>
       </c>
       <c r="C10">
-        <v>0.108871</v>
+        <v>0.004437</v>
       </c>
     </row>
     <row r="11">
@@ -5480,10 +10414,10 @@
         <v>550000</v>
       </c>
       <c r="B11">
-        <v>0.17966599999999999</v>
+        <v>0.0089009999999999992</v>
       </c>
       <c r="C11">
-        <v>0.121419</v>
+        <v>0.0048399999999999997</v>
       </c>
     </row>
     <row r="12">
@@ -5491,10 +10425,10 @@
         <v>600000</v>
       </c>
       <c r="B12">
-        <v>0.19715299999999999</v>
+        <v>0.0095689999999999994</v>
       </c>
       <c r="C12">
-        <v>0.135462</v>
+        <v>0.0052550000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5502,10 +10436,10 @@
         <v>650000</v>
       </c>
       <c r="B13">
-        <v>0.21589900000000001</v>
+        <v>0.010467000000000001</v>
       </c>
       <c r="C13">
-        <v>0.14619299999999999</v>
+        <v>0.005692</v>
       </c>
     </row>
     <row r="14">
@@ -5513,10 +10447,10 @@
         <v>700000</v>
       </c>
       <c r="B14">
-        <v>0.23557700000000001</v>
+        <v>0.011155</v>
       </c>
       <c r="C14">
-        <v>0.15898499999999999</v>
+        <v>0.0061520000000000004</v>
       </c>
     </row>
     <row r="15">
@@ -5524,10 +10458,10 @@
         <v>750000</v>
       </c>
       <c r="B15">
-        <v>0.25247599999999998</v>
+        <v>0.012049000000000001</v>
       </c>
       <c r="C15">
-        <v>0.171017</v>
+        <v>0.0065669999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5535,10 +10469,10 @@
         <v>800000</v>
       </c>
       <c r="B16">
-        <v>0.27097599999999999</v>
+        <v>0.012739</v>
       </c>
       <c r="C16">
-        <v>0.18407899999999999</v>
+        <v>0.0070159999999999997</v>
       </c>
     </row>
     <row r="17">
@@ -5546,10 +10480,10 @@
         <v>850000</v>
       </c>
       <c r="B17">
-        <v>0.29153400000000002</v>
+        <v>0.013559999999999999</v>
       </c>
       <c r="C17">
-        <v>0.19761899999999999</v>
+        <v>0.0074609999999999998</v>
       </c>
     </row>
     <row r="18">
@@ -5557,10 +10491,10 @@
         <v>900000</v>
       </c>
       <c r="B18">
-        <v>0.30847999999999998</v>
+        <v>0.014374</v>
       </c>
       <c r="C18">
-        <v>0.209092</v>
+        <v>0.0080249999999999991</v>
       </c>
     </row>
     <row r="19">
@@ -5568,10 +10502,10 @@
         <v>950000</v>
       </c>
       <c r="B19">
-        <v>0.32803300000000002</v>
+        <v>0.015332999999999999</v>
       </c>
       <c r="C19">
-        <v>0.22292200000000001</v>
+        <v>0.0083230000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +10524,234 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>100000</v>
+      </c>
+      <c r="B2">
+        <v>0.027639</v>
+      </c>
+      <c r="C2">
+        <v>0.018145000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>150000</v>
+      </c>
+      <c r="B3">
+        <v>0.043219</v>
+      </c>
+      <c r="C3">
+        <v>0.02835</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>200000</v>
+      </c>
+      <c r="B4">
+        <v>0.059573000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.039778000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>250000</v>
+      </c>
+      <c r="B5">
+        <v>0.076072000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.050102000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>300000</v>
+      </c>
+      <c r="B6">
+        <v>0.092969999999999997</v>
+      </c>
+      <c r="C6">
+        <v>0.061435999999999998</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>350000</v>
+      </c>
+      <c r="B7">
+        <v>0.109934</v>
+      </c>
+      <c r="C7">
+        <v>0.073065000000000005</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>400000</v>
+      </c>
+      <c r="B8">
+        <v>0.127389</v>
+      </c>
+      <c r="C8">
+        <v>0.084978999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>450000</v>
+      </c>
+      <c r="B9">
+        <v>0.14446999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.096891000000000005</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>500000</v>
+      </c>
+      <c r="B10">
+        <v>0.16259199999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.108871</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>550000</v>
+      </c>
+      <c r="B11">
+        <v>0.17966599999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.121419</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>600000</v>
+      </c>
+      <c r="B12">
+        <v>0.19715299999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.135462</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>650000</v>
+      </c>
+      <c r="B13">
+        <v>0.21589900000000001</v>
+      </c>
+      <c r="C13">
+        <v>0.14619299999999999</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>700000</v>
+      </c>
+      <c r="B14">
+        <v>0.23557700000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.15898499999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>750000</v>
+      </c>
+      <c r="B15">
+        <v>0.25247599999999998</v>
+      </c>
+      <c r="C15">
+        <v>0.171017</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>800000</v>
+      </c>
+      <c r="B16">
+        <v>0.27097599999999999</v>
+      </c>
+      <c r="C16">
+        <v>0.18407899999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>850000</v>
+      </c>
+      <c r="B17">
+        <v>0.29153400000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.19761899999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>900000</v>
+      </c>
+      <c r="B18">
+        <v>0.30847999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.209092</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>950000</v>
+      </c>
+      <c r="B19">
+        <v>0.32803300000000002</v>
+      </c>
+      <c r="C19">
+        <v>0.22292200000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
